--- a/target/test-classes/Data.xlsx
+++ b/target/test-classes/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28417"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60B5630A-DFCF-4997-8202-2193668EE0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD6324F8-ED81-41B2-85F6-41E91AC04BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="115">
   <si>
     <t>First Name</t>
   </si>
@@ -72,91 +72,310 @@
     <t>PositiveOrNegative case?</t>
   </si>
   <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>max.black@email.com</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>a.t@yahoo.com</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>12345678911</t>
+    <t>9321987460</t>
+  </si>
+  <si>
+    <t>Commerce</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>/src/test/resources/HelloText</t>
+  </si>
+  <si>
+    <t>44, Partapur, Meerut - 250103</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Merrut</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Antidisestablishmentarianism</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>antidisestablishmentarianism.cooper@gmail.com</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>9158426703</t>
+  </si>
+  <si>
+    <t>Civics</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>17, Sadar Bazar, Karnal - 132001</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Karnal</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Pneumonoultramicroscopicsilicovolcanoconiosis</t>
+  </si>
+  <si>
+    <t>joseph.Pneumonoultramicroscopicsilicovolcanoconiosis@outlook.com</t>
+  </si>
+  <si>
+    <t>9032741586</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>60, Gohana Road, Panipat - 132103</t>
+  </si>
+  <si>
+    <t>Panipat</t>
+  </si>
+  <si>
+    <t>Anne-Marie</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>annemarie.martin@yahoo.com</t>
+  </si>
+  <si>
+    <t>9608321475</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>22, Bani Park, Jaipur - 302016</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>Jean-Luc</t>
+  </si>
+  <si>
+    <t>D'Angelo</t>
+  </si>
+  <si>
+    <t>jeanluc.dangelo@aol.com</t>
+  </si>
+  <si>
+    <t>9847312506</t>
+  </si>
+  <si>
+    <t>Arts</t>
+  </si>
+  <si>
+    <t>19, Sam Road, Jaisalmer - 345001</t>
+  </si>
+  <si>
+    <t>Jaiselmer</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>García</t>
+  </si>
+  <si>
+    <t>jose.garcia@gmail.com</t>
+  </si>
+  <si>
+    <t>9072456318</t>
+  </si>
+  <si>
+    <t>Social Studies</t>
+  </si>
+  <si>
+    <t>23, Green Park Extension, New Delhi - 110016</t>
+  </si>
+  <si>
+    <t>NCR</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Benjamin123</t>
+  </si>
+  <si>
+    <t>Hayes1</t>
+  </si>
+  <si>
+    <t>benjamin.hayes@yahoo.com</t>
+  </si>
+  <si>
+    <t>9517432860</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>90, Sector 29, Gurgaon - 122018</t>
+  </si>
+  <si>
+    <t>Gurgaon</t>
+  </si>
+  <si>
+    <t>ELLA</t>
+  </si>
+  <si>
+    <t>YOUNG</t>
+  </si>
+  <si>
+    <t>ella.young@outlook.com</t>
+  </si>
+  <si>
+    <t>9374185962</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>68, Sector 28, Noida - 201301</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>LuCAs</t>
+  </si>
+  <si>
+    <t>TuRnER</t>
+  </si>
+  <si>
+    <t>lucas.turner@gmail.com</t>
+  </si>
+  <si>
+    <t>9125364780</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>50, Kamla Nagar, Agra - 282005</t>
+  </si>
+  <si>
+    <t>Agra</t>
+  </si>
+  <si>
+    <t>Bennett</t>
+  </si>
+  <si>
+    <t>zoe.bennett@aol.com</t>
+  </si>
+  <si>
+    <t>9062387415</t>
   </si>
   <si>
     <t>History</t>
   </si>
   <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>/src/test/resources/HelloText</t>
-  </si>
-  <si>
-    <t>987 Maple Ave</t>
-  </si>
-  <si>
-    <t>NCR</t>
-  </si>
-  <si>
-    <t>Noida</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Aarav</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>aarav.sharma@email</t>
-  </si>
-  <si>
-    <t>9876543210</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Sports</t>
-  </si>
-  <si>
-    <t>123, Sector 12, Dwarka</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Shweta</t>
-  </si>
-  <si>
-    <t>Singh</t>
-  </si>
-  <si>
-    <t>shweta.singh.com</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>5551234567</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>45, Main Road, Jaiselmer</t>
-  </si>
-  <si>
-    <t>Rajasthan</t>
-  </si>
-  <si>
-    <t>Jaiselmer</t>
+    <t>18, Rajajipuram, Lucknow - 226017</t>
+  </si>
+  <si>
+    <t>Lucknow</t>
+  </si>
+  <si>
+    <t>@abriel</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>gabriel.king@yahoo.com</t>
+  </si>
+  <si>
+    <t>9893051764</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>60, Rohta Road, Meerut - 250001</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>#$%^&amp;*</t>
+  </si>
+  <si>
+    <t>clara.white@gmail.com</t>
+  </si>
+  <si>
+    <t>9671438205</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>10, Old Karnal, Karnal - 132001</t>
+  </si>
+  <si>
+    <t>first.last@outlook.com</t>
+  </si>
+  <si>
+    <t>9012376458</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>11, Huda Market, Panipat - 132103</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;alert('Test')&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src='test.jpg'&gt;</t>
+  </si>
+  <si>
+    <t>isabella.hall@gmail.com</t>
+  </si>
+  <si>
+    <t>9176805243</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>50, JLN Marg, Jaipur - 302004</t>
   </si>
 </sst>
 </file>
@@ -172,17 +391,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -212,21 +431,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -564,23 +785,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -632,17 +853,17 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="6">
-        <v>29585</v>
+        <v>31202</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -673,35 +894,35 @@
       <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="F3" s="6">
-        <v>32874</v>
+        <v>32694</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
@@ -709,115 +930,512 @@
     </row>
     <row r="4" spans="1:13" ht="60.75">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>37</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="F4" s="6">
-        <v>35117</v>
+        <v>34552</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="C5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="I5" s="7"/>
+    <row r="5" spans="1:13" ht="60.75">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="6">
+        <v>33854</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="C6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="I6" s="7"/>
+    <row r="6" spans="1:13" ht="60.75">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="6">
+        <v>31693</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="C7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="I7" s="7"/>
+    <row r="7" spans="1:13" ht="60.75">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="6">
+        <v>35012</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="C8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="I8" s="7"/>
+    <row r="8" spans="1:13" ht="60.75">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="6">
+        <v>30660</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="C9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="I9" s="7"/>
+    <row r="9" spans="1:13" ht="60.75">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="6">
+        <v>30692</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="C10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="I10" s="7"/>
+    <row r="10" spans="1:13" ht="60.75">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="6">
+        <v>31820</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="C11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="I11" s="7"/>
+    <row r="11" spans="1:13" ht="60.75">
+      <c r="A11">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="6">
+        <v>33310</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="C12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="I12" s="7"/>
+    <row r="12" spans="1:13" ht="60.75">
+      <c r="A12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="6">
+        <v>32977</v>
+      </c>
+      <c r="G12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="C13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="I13" s="7"/>
+    <row r="13" spans="1:13" ht="60.75">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="6">
+        <v>32278</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="C14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="I14" s="7"/>
+    <row r="14" spans="1:13" ht="60.75">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="6">
+        <v>34866</v>
+      </c>
+      <c r="G14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="C15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="I15" s="7"/>
+    <row r="15" spans="1:13" ht="60.75">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="6">
+        <v>34167</v>
+      </c>
+      <c r="G15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{329B8498-11AF-40F3-A0D9-7E844C8F21AA}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{29004E1A-4602-40C7-9090-897AAAFC6609}"/>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{DAB7FB2E-3676-4FED-9028-852FF3D146F6}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{30C9453D-D889-4655-8B9B-C8A00FA34DEA}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{D233943B-CED3-4503-86E0-DF97BFFB0CD2}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{6258A4F9-8C08-478D-BFDD-6A78D874E45D}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{79E4ACA0-3B24-4C89-B834-82ED8F18F163}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{D2A22020-2EB2-4CD1-8841-A11F96CD933A}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{30D92FF9-8C9C-45B4-B511-1558F883F3B9}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{8505E02C-4BD4-4FD6-A2C3-58C615BE77EA}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{3760AB91-D3B3-4AB1-AD97-26C45E7BC00D}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{92692C47-69E4-4905-8953-C9C383B64E8A}"/>
+    <hyperlink ref="C5" r:id="rId11" xr:uid="{A58F39BF-DD83-4CFD-B0E7-6040CEE3E180}"/>
+    <hyperlink ref="C4" r:id="rId12" xr:uid="{B52DB6DD-90A3-4EC1-8FA5-1232B4FA4857}"/>
+    <hyperlink ref="C3" r:id="rId13" xr:uid="{D0B4DF92-1B2F-46DD-8488-1A4EFA42DEE8}"/>
+    <hyperlink ref="C2" r:id="rId14" xr:uid="{07196972-8D1C-4C11-A77B-72222C80102B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
